--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-22 15:09:31</t>
+          <t>2025-04-23 23:39:18</t>
         </is>
       </c>
     </row>
